--- a/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_account/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_account/expected_result.xlsx
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>-98353.78</v>
+        <v>-116130.41</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>-81581.45</v>
+        <v>-109552.69</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>-98721.47</v>
+        <v>-122146.94</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>-26025.6</v>
+        <v>-137516.7</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>-89436.92</v>
+        <v>-32813.36</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>-394119.22</v>
+        <v>-518160.1</v>
       </c>
     </row>
     <row r="3">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>418356.95</v>
+        <v>462151.42</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>485491.04</v>
+        <v>449620.26</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>498005.04</v>
+        <v>528792.92</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>513872.47</v>
+        <v>409323.45</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>415805.85</v>
+        <v>459273.54</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>2331531.35</v>
+        <v>2309161.59</v>
       </c>
     </row>
     <row r="4">
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>0</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>-0</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -614,22 +614,22 @@
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="n">
-        <v>-0</v>
-      </c>
       <c r="G5" s="6" t="n">
         <v>-0</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -641,22 +641,22 @@
       <c r="B6" s="1" t="inlineStr"/>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="7" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
